--- a/BalanceSheet/PWR_bal.xlsx
+++ b/BalanceSheet/PWR_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3073000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>8655000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2500000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-4368000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8570000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>67039000.0</v>
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-32319000.0</v>
+        <v>798000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>235633000.0</v>
+        <v>1544000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22649000.0</v>
+        <v>1289000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-110394000.0</v>
+        <v>1360000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-189054000.0</v>
+        <v>1490000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1648079000.0</v>
@@ -2520,19 +2520,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-40790000.0</v>
+        <v>149000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-17443000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-5993000.0</v>
+        <v>221000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4210000.0</v>
+        <v>218000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-56217000.0</v>
+        <v>215000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>279858000.0</v>
